--- a/Maps/6Fmap.xlsx
+++ b/Maps/6Fmap.xlsx
@@ -1150,8 +1150,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2990850" y="2447925"/>
-          <a:ext cx="923925" cy="0"/>
+          <a:off x="3018559" y="2472170"/>
+          <a:ext cx="930852" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1588,13 +1588,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1650,15 +1646,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1714,15 +1704,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1754,121 +1738,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>165420</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="120" name="グループ化 119"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2447924" y="2600325"/>
-          <a:ext cx="1619250" cy="822645"/>
-          <a:chOff x="5991225" y="2266950"/>
-          <a:chExt cx="2244730" cy="1169545"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="円/楕円 117"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5991225" y="2266950"/>
-            <a:ext cx="2028825" cy="1123950"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="119" name="テキスト ボックス 118"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6031711" y="2551323"/>
-            <a:ext cx="2204244" cy="885172"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>キッズコーナー</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -1927,207 +1796,230 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19052</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="126" name="グループ化 125"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm flipH="1">
-          <a:off x="1390652" y="3476626"/>
-          <a:ext cx="866774" cy="695324"/>
-          <a:chOff x="6124575" y="2725913"/>
-          <a:chExt cx="1504995" cy="769762"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="正方形/長方形 121"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6143625" y="3362325"/>
-            <a:ext cx="1323975" cy="123825"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="角丸四角形 122"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6124575" y="3362325"/>
-            <a:ext cx="352425" cy="123825"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="角丸四角形 123"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7315200" y="3362325"/>
-            <a:ext cx="142875" cy="133350"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="125" name="雲 124"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="16943374">
-            <a:off x="7185264" y="3000515"/>
-            <a:ext cx="718907" cy="169704"/>
-          </a:xfrm>
-          <a:prstGeom prst="cloud">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="1368136"/>
+          <a:ext cx="710045" cy="623455"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="二等辺三角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7758546" y="1956954"/>
+          <a:ext cx="796636" cy="1281545"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>654628</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>671945</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="円/楕円 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8967355" y="1364672"/>
+          <a:ext cx="710045" cy="623455"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>606138</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="二等辺三角形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8918865" y="2008909"/>
+          <a:ext cx="796636" cy="1281545"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2422,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Maps/6Fmap.xlsx
+++ b/Maps/6Fmap.xlsx
@@ -59,6 +59,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1796,230 +1801,241 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>623455</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>155863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="円/楕円 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>398317</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7810500" y="1368136"/>
-          <a:ext cx="710045" cy="623455"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>138546</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>242455</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="二等辺三角形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7758546" y="1956954"/>
-          <a:ext cx="796636" cy="1281545"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>654628</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>671945</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="円/楕円 46"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8967355" y="1364672"/>
-          <a:ext cx="710045" cy="623455"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>606138</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="二等辺三角形 48"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="8918865" y="2008909"/>
-          <a:ext cx="796636" cy="1281545"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:off x="3357690" y="1259745"/>
+          <a:ext cx="458421" cy="507729"/>
+          <a:chOff x="7758546" y="1364672"/>
+          <a:chExt cx="1956955" cy="1977736"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="円/楕円 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7810500" y="1420090"/>
+            <a:ext cx="710045" cy="623455"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0066"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0066"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="二等辺三角形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7758546" y="2008908"/>
+            <a:ext cx="796636" cy="1281545"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0066"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0066"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="円/楕円 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8967355" y="1364672"/>
+            <a:ext cx="710045" cy="623455"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="二等辺三角形 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="8918865" y="2060863"/>
+            <a:ext cx="796636" cy="1281545"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2314,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Maps/6Fmap.xlsx
+++ b/Maps/6Fmap.xlsx
@@ -1801,16 +1801,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>623455</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>398317</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>86592</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361517</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>136380</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>62779</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1819,8 +1819,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3357690" y="1259745"/>
-          <a:ext cx="458421" cy="507729"/>
+          <a:off x="9338830" y="2226252"/>
+          <a:ext cx="465425" cy="503527"/>
           <a:chOff x="7758546" y="1364672"/>
           <a:chExt cx="1956955" cy="1977736"/>
         </a:xfrm>
@@ -2330,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
